--- a/test/data/data-test.xlsx
+++ b/test/data/data-test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="591">
   <si>
     <t xml:space="preserve">Daten</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">mFUND-Projekt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCAT-Kategorie</t>
   </si>
   <si>
     <t xml:space="preserve">Mauttabelle</t>
@@ -171,6 +174,9 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">TRAN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bathymetrien 1982 - 2012</t>
   </si>
   <si>
@@ -248,6 +254,9 @@
   </si>
   <si>
     <t xml:space="preserve">Februar 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAN,ENVI</t>
   </si>
   <si>
     <t xml:space="preserve">Abkürzung</t>
@@ -2046,12 +2055,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AE1048576"/>
+  <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
+      <selection pane="bottomLeft" activeCell="AF3" activeCellId="0" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2173,26 +2182,29 @@
       <c r="AE1" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="150" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -2204,28 +2216,28 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y2" s="6" t="str">
         <f aca="false">VLOOKUP(Q2,Lizenzen!$A$2:$B$17,2)</f>
@@ -2248,32 +2260,35 @@
         <f aca="false">IF(ISBLANK(AD2),"",IF(ISNUMBER(RIGHT(AD2)/1),VLOOKUP(AD2&amp;"A",'mFUND-Projekte'!$A$2:$C$399,2),VLOOKUP(AD2,'mFUND-Projekte'!$A$2:$C$399,2)))</f>
         <v/>
       </c>
+      <c r="AF2" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -2283,28 +2298,28 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W3" s="10" t="n">
         <v>41214</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y3" s="6" t="str">
         <f aca="false">VLOOKUP(Q3,Lizenzen!$A$2:$B$17,2)</f>
@@ -2333,33 +2348,33 @@
     </row>
     <row r="4" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -2367,26 +2382,26 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W4" s="10" t="n">
         <v>42627</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y4" s="6" t="str">
         <f aca="false">VLOOKUP(Q4,Lizenzen!$A$2:$B$17,2)</f>
@@ -2411,6 +2426,9 @@
       <c r="AE4" s="1" t="str">
         <f aca="false">IF(ISBLANK(AD4),"",IF(ISNUMBER(RIGHT(AD4)/1),VLOOKUP(AD4&amp;"A",'mFUND-Projekte'!$A$2:$C$399,2),VLOOKUP(AD4,'mFUND-Projekte'!$A$2:$C$399,2)))</f>
         <v/>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3349,1430 +3367,1430 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="D3" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>145</v>
-      </c>
       <c r="E27" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="E33" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4808,237 +4826,237 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -5065,98 +5083,98 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>379</v>
-      </c>
       <c r="C8" s="12" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5165,7 +5183,7 @@
         <v>19F1004A</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C9" s="0" t="str">
         <f aca="false">"UBIMET GmbH"</f>
@@ -5178,7 +5196,7 @@
         <v>19F1004B</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C10" s="0" t="str">
         <f aca="false">"Fraunhofer-Institut für offene Kommunikationssysteme (FOKUS) - Standort Berlin"</f>
@@ -5191,7 +5209,7 @@
         <v>19F1004C</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C11" s="0" t="str">
         <f aca="false">"Jade Hochschule Wilhelmshaven/Oldenburg/Elsfleth - Standort Wilhelmshaven - Fachbereich Management Information Technologie"</f>
@@ -5204,7 +5222,7 @@
         <v>19F1004D</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C12" s="0" t="str">
         <f aca="false">"CMF Climate Media Factory UG (haftungsbeschränkt)"</f>
@@ -5217,7 +5235,7 @@
         <v>19F1005A</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C13" s="0" t="str">
         <f aca="false">"Hessen Mobil - Straßen- und Verkehrsmanagement"</f>
@@ -5230,7 +5248,7 @@
         <v>19F1005B</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C14" s="0" t="str">
         <f aca="false">"Karlsruher Institut für Technologie (KIT) - Institut für Verkehrswesen"</f>
@@ -5243,7 +5261,7 @@
         <v>19F1006A</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C15" s="0" t="str">
         <f aca="false">"DBI - Gastechnologisches Institut gGmbH Freiberg"</f>
@@ -5256,7 +5274,7 @@
         <v>19F1006B</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C16" s="0" t="str">
         <f aca="false">"Software-Service John GmbH"</f>
@@ -5269,7 +5287,7 @@
         <v>19F1006C</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C17" s="0" t="str">
         <f aca="false">"Nexiga GmbH"</f>
@@ -5278,13 +5296,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5293,7 +5311,7 @@
         <v>19F1008A</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C19" s="0" t="str">
         <f aca="false">"Moritz Müller-Navarra"</f>
@@ -5306,7 +5324,7 @@
         <v>19F1009A</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C20" s="0" t="str">
         <f aca="false">"Technische Universität München - Ingenieurfakultät Bau Geo Umwelt - Lehrstuhl für Kartographie"</f>
@@ -5319,7 +5337,7 @@
         <v>19F1010A</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C21" s="0" t="str">
         <f aca="false">"TerraLoupe GmbH"</f>
@@ -5332,7 +5350,7 @@
         <v>19F1010B</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C22" s="0" t="str">
         <f aca="false">"Deutsches Zentrum für Luft- und Raumfahrt e.V. - Institut für Optische Sensorsysteme"</f>
@@ -5345,7 +5363,7 @@
         <v>19F1011A</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C23" s="0" t="str">
         <f aca="false">"HafenCity Universität Hamburg"</f>
@@ -5358,7 +5376,7 @@
         <v>19F1012A</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C24" s="0" t="str">
         <f aca="false">"Technische Universität München - Fakultät für Maschinenwesen - Lehrstuhl für Fahrzeugtechnik"</f>
@@ -5371,7 +5389,7 @@
         <v>19F1013A</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C25" s="0" t="str">
         <f aca="false">"Geospin GmbH"</f>
@@ -5384,7 +5402,7 @@
         <v>19F1013B</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C26" s="0" t="str">
         <f aca="false">"Albert-Ludwigs-Universität Freiburg - Wirtschafts- und Verhaltenswissenschaftliche Fakultät - Abt. für Wirtschaftsinformatik - Kollegiengebäude II"</f>
@@ -5397,7 +5415,7 @@
         <v>19F1014A</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C27" s="0" t="str">
         <f aca="false">"Innovationszentrum für Mobilität und gesellschaftlichen Wandel (InnoZ) GmbH"</f>
@@ -5410,7 +5428,7 @@
         <v>19F1015A</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C28" s="0" t="str">
         <f aca="false">"149 Technologies GmbH"</f>
@@ -5423,7 +5441,7 @@
         <v>19F1016A</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C29" s="0" t="str">
         <f aca="false">"Hahn Projects GmbH"</f>
@@ -5436,7 +5454,7 @@
         <v>19F1016B</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C30" s="0" t="str">
         <f aca="false">"Universität Kassel - Fachbereich 16 Elektrotechnik / Informatik - Fachgebiet Softwaretechnik"</f>
@@ -5449,7 +5467,7 @@
         <v>19F1017A</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C31" s="0" t="str">
         <f aca="false">"Datenfreunde GmbH"</f>
@@ -5462,7 +5480,7 @@
         <v>19F1018A</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C32" s="0" t="str">
         <f aca="false">"Hamburger Informatik Technologie-Center (HITeC) e.V."</f>
@@ -5475,7 +5493,7 @@
         <v>19F1019A</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C33" s="0" t="str">
         <f aca="false">"MDL Mobility Data Lab GmbH"</f>
@@ -5488,7 +5506,7 @@
         <v>19F1020A</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C34" s="0" t="str">
         <f aca="false">"Sozialhelden e.V."</f>
@@ -5501,7 +5519,7 @@
         <v>19F1021A</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C35" s="0" t="str">
         <f aca="false">"Green Excellence GmbH"</f>
@@ -5514,7 +5532,7 @@
         <v>19F1021B</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C36" s="0" t="str">
         <f aca="false">"Pretherm GmbH"</f>
@@ -5527,7 +5545,7 @@
         <v>19F1022A</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C37" s="0" t="str">
         <f aca="false">"Plugsurfing GmbH"</f>
@@ -5540,7 +5558,7 @@
         <v>19F1023A</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C38" s="0" t="str">
         <f aca="false">"Qivalon GmbH"</f>
@@ -5553,7 +5571,7 @@
         <v>19F1023B</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C39" s="0" t="str">
         <f aca="false">"Hochschule für Technik und Wirtschaft des Saarlandes - Fakultät für Wirtschaftswissenschaften - Institut für Supply Chain und Operations Management"</f>
@@ -5566,7 +5584,7 @@
         <v>19F1024A</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C40" s="0" t="str">
         <f aca="false">"Fachhochschule Potsdam - Fachbereich Bauingenieurwesen, Fachgebiet Verkehrswesen"</f>
@@ -5579,7 +5597,7 @@
         <v>19F1025A</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C41" s="0" t="str">
         <f aca="false">"Fachhochschule der Wirtschaft Nordrhein-Westfalen gGmbH"</f>
@@ -5592,7 +5610,7 @@
         <v>19F1025B</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C42" s="0" t="str">
         <f aca="false">"Rheinisch-Westfälische Technische Hochschule Aachen - Fakultät 3 - Bauingenieurwesen - Lehrstuhl und Institut für Straßenwesen"</f>
@@ -5605,7 +5623,7 @@
         <v>19F1026A</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C43" s="0" t="str">
         <f aca="false">"COSMO GbR - Inh. Gäbelein, Thomas u. Wagner vom Berg, Benjamin"</f>
@@ -5618,7 +5636,7 @@
         <v>19F1026B</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C44" s="0" t="str">
         <f aca="false">"ecco ecology + communication Unternehmensberatung GmbH"</f>
@@ -5631,7 +5649,7 @@
         <v>19F1027A</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C45" s="0" t="str">
         <f aca="false">"Netzwerk Geoinformation der Metropolregion Rhein-Neckar e.V."</f>
@@ -5644,7 +5662,7 @@
         <v>19F1027B</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C46" s="0" t="str">
         <f aca="false">"Metropolregion Rhein-Neckar GmbH"</f>
@@ -5657,7 +5675,7 @@
         <v>19F1027C</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C47" s="0" t="str">
         <f aca="false">"Verkehrsverbund Rhein-Neckar GmbH (VRN GmbH)"</f>
@@ -5670,7 +5688,7 @@
         <v>19F1028A</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C48" s="0" t="str">
         <f aca="false">"Stadt Flensburg"</f>
@@ -5683,7 +5701,7 @@
         <v>19F1029A</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C49" s="0" t="str">
         <f aca="false">"Frankfurt University of Applied Sciences Fb1: Architektur - Bauingenieurwesen - Geomatik Fachgruppe Neue Mobilität"</f>
@@ -5696,7 +5714,7 @@
         <v>19F1030A</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C50" s="0" t="str">
         <f aca="false">"Initiative für sicherere Straßen UG (haftungsbeschränkt)"</f>
@@ -5709,7 +5727,7 @@
         <v>19F1030B</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C51" s="0" t="str">
         <f aca="false">"Rheinisch-Westfälische Technische Hochschule Aachen - Fakultät 3 - Bauingenieurwesen - Lehrstuhl und Institut für Straßenwesen"</f>
@@ -5722,7 +5740,7 @@
         <v>19F1031A</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C52" s="0" t="str">
         <f aca="false">"mundialis GmbH &amp; Co. KG"</f>
@@ -5735,7 +5753,7 @@
         <v>19F1031B</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C53" s="0" t="str">
         <f aca="false">"Sopra Steria SE"</f>
@@ -5748,7 +5766,7 @@
         <v>19F1032A</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C54" s="0" t="str">
         <f aca="false">"webkid GmbH"</f>
@@ -5761,7 +5779,7 @@
         <v>19F1033A</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C55" s="0" t="str">
         <f aca="false">"Fraunhofer-Institut für Verkehrs- und Infrastruktursysteme (IVI)"</f>
@@ -5774,7 +5792,7 @@
         <v>19F1034A</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C56" s="0" t="str">
         <f aca="false">"25ways GmbH"</f>
@@ -5787,7 +5805,7 @@
         <v>19F1035A</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C57" s="0" t="str">
         <f aca="false">"Deutsches Zentrum für Luft- und Raumfahrt e.V. - Institut für Methodik der Fernerkundung"</f>
@@ -5800,7 +5818,7 @@
         <v>19F1036A</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C58" s="0" t="str">
         <f aca="false">"ESRI Deutschland GmbH"</f>
@@ -5813,7 +5831,7 @@
         <v>19F1036B</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C59" s="0" t="str">
         <f aca="false">"RLP AgroScience GmbH"</f>
@@ -5826,7 +5844,7 @@
         <v>19F1036C</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C60" s="0" t="str">
         <f aca="false">"AGRAVIS Technik Münsterland-Ems GmbH - Niederlassung Olfen"</f>
@@ -5839,7 +5857,7 @@
         <v>19F1037A</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C61" s="0" t="str">
         <f aca="false">"accu:rate GmbH"</f>
@@ -5852,7 +5870,7 @@
         <v>19F1037B</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C62" s="0" t="str">
         <f aca="false">"Technische Universität München - Hochschulreferat 6 - Lehrstuhl für Computergestützte Modellierung und Simulation"</f>
@@ -5865,7 +5883,7 @@
         <v>19F1038A</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C63" s="0" t="str">
         <f aca="false">"Dr. Thomas König &amp; Partner, Fernerkundung GbR"</f>
@@ -5878,7 +5896,7 @@
         <v>19F1038B</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C64" s="0" t="str">
         <f aca="false">"Deutsches Zentrum für Luft- und Raumfahrt e.V. - Institut für Methodik der Fernerkundung"</f>
@@ -5891,7 +5909,7 @@
         <v>19F1039A</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C65" s="0" t="str">
         <f aca="false">"FixMyBerlin Boris Hekele &amp; Heiko Rintelen GbR"</f>
@@ -5904,7 +5922,7 @@
         <v>19F1040A</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C66" s="0" t="str">
         <f aca="false">"Zolitron Technology GmbH"</f>
@@ -5917,7 +5935,7 @@
         <v>19F1041A</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C67" s="0" t="str">
         <f aca="false">"kirsch konkret e.K."</f>
@@ -5930,7 +5948,7 @@
         <v>19F1041B</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C68" s="0" t="str">
         <f aca="false">"GVP Geppert Vision and Process GmbH"</f>
@@ -5943,7 +5961,7 @@
         <v>19F1041C</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C69" s="0" t="str">
         <f aca="false">"Codeheroes GmbH"</f>
@@ -5956,7 +5974,7 @@
         <v>19F1042A</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C70" s="0" t="str">
         <f aca="false">"Hochschule Ostwestfalen-Lippe - Standort Detmold - Fachbereich Architektur und Innenarchitektur"</f>
@@ -5969,7 +5987,7 @@
         <v>19F1043A</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C71" s="0" t="str">
         <f aca="false">"Fraunhofer-Gesellschaft zur Förderung der angewandten Forschung e.V. - Fraunhofer-Center für Maritime Logistik und Dienstleistungen - Projektgruppe des IML"</f>
@@ -5982,7 +6000,7 @@
         <v>19F1044A</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C72" s="0" t="str">
         <f aca="false">"DTV-Verkehrsconsult GmbH"</f>
@@ -5995,7 +6013,7 @@
         <v>19F1045A</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C73" s="0" t="str">
         <f aca="false">"Cargonexx GmbH"</f>
@@ -6008,7 +6026,7 @@
         <v>19F1046A</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C74" s="0" t="str">
         <f aca="false">"Deutsches Zentrum für Luft- und Raumfahrt e.V. - Institut für Methodik der Fernerkundung"</f>
@@ -6021,7 +6039,7 @@
         <v>19F1047A</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C75" s="0" t="str">
         <f aca="false">"Viscan Solutions GmbH"</f>
@@ -6034,7 +6052,7 @@
         <v>19F1047B</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C76" s="0" t="str">
         <f aca="false">"Hochschule Albstadt-Sigmaringen - KEIM Institut"</f>
@@ -6047,7 +6065,7 @@
         <v>19F1048A</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C77" s="0" t="str">
         <f aca="false">"Bottled Software GmbH"</f>
@@ -6060,7 +6078,7 @@
         <v>19F1049A</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C78" s="0" t="str">
         <f aca="false">"Telefónica Germany NEXT GmbH"</f>
@@ -6073,7 +6091,7 @@
         <v>19F1050A</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C79" s="0" t="str">
         <f aca="false">"HafenCity Universität Hamburg"</f>
@@ -6086,7 +6104,7 @@
         <v>19F1051A</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C80" s="0" t="str">
         <f aca="false">"AdaptVis GmbH"</f>
@@ -6099,7 +6117,7 @@
         <v>19F1051B</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C81" s="0" t="str">
         <f aca="false">"Deutsches Klimarechenzentrum GmbH"</f>
@@ -6108,24 +6126,24 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6134,7 +6152,7 @@
         <v>19F1054A</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C84" s="0" t="str">
         <f aca="false">"Füllner &amp; Partner GmbH"</f>
@@ -6143,68 +6161,68 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6213,7 +6231,7 @@
         <v>19F2001A</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C91" s="0" t="str">
         <f aca="false">"Hochschule Fresenius gemeinnützige GmbH - Fachbereich Chemie und Biologie und Fachbereich Gesundheit &amp; Soziales"</f>
@@ -6226,7 +6244,7 @@
         <v>19F2001B</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C92" s="0" t="str">
         <f aca="false">"Technische Universität Darmstadt - Fachbereich Informatik"</f>
@@ -6239,7 +6257,7 @@
         <v>19F2001C</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C93" s="0" t="str">
         <f aca="false">"DB Systel GmbH"</f>
@@ -6252,7 +6270,7 @@
         <v>19F2002A</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C94" s="0" t="str">
         <f aca="false">"Bauhaus-Universität Weimar - Fakultät Bauingenieurwesen - Professur Verkehrssystemplanung"</f>
@@ -6265,7 +6283,7 @@
         <v>19F2002B</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C95" s="0" t="str">
         <f aca="false">"Landeshauptstadt Erfurt - Dezernat 06 Bau und Verkehr - Tiefbau und Verkehrsamt - Abt. Verkehr"</f>
@@ -6278,7 +6296,7 @@
         <v>19F2002C</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C96" s="0" t="str">
         <f aca="false">"pwp - systems GmbH - Niederlassung Halle (Saale)"</f>
@@ -6291,7 +6309,7 @@
         <v>19F2003A</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C97" s="0" t="str">
         <f aca="false">"Karlsruher Institut für Technologie (KIT) - Fakultät für Informatik - Institut für Telematik - Lehrstuhl für Pervasive Computing Systems"</f>
@@ -6304,7 +6322,7 @@
         <v>19F2003B</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C98" s="0" t="str">
         <f aca="false">"Sondervermögen Großforschung beim Karlsruher Institut für Technologie (KIT) - Institut für Meteorologie und Klimaforschung - Atmosphärische Umweltforschung (IMK-IFU)"</f>
@@ -6317,7 +6335,7 @@
         <v>19F2003C</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C99" s="0" t="str">
         <f aca="false">"GRIMM Aerosol Technik Ainring GmbH &amp; Co. KG"</f>
@@ -6330,7 +6348,7 @@
         <v>19F2003D</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C100" s="0" t="str">
         <f aca="false">"Aerosol Akademie e.V."</f>
@@ -6343,7 +6361,7 @@
         <v>19F2003E</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C101" s="0" t="str">
         <f aca="false">"Helmholtz Zentrum München Deutsches Forschungszentrum für Gesundheit und Umwelt (GmbH) - Institut für Epidemiologie II"</f>
@@ -6356,7 +6374,7 @@
         <v>19F2003F</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C102" s="0" t="str">
         <f aca="false">"Universität Augsburg - Fakultät für Angewandte Informatik - Institut für Geographie - Lehrstuhl Physische Geographie und Quantitative Methoden"</f>
@@ -6369,7 +6387,7 @@
         <v>19F2004A</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C103" s="0" t="str">
         <f aca="false">"Bundesanstalt für Wasserbau"</f>
@@ -6382,7 +6400,7 @@
         <v>19F2004B</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C104" s="0" t="str">
         <f aca="false">"Technische Universität Hamburg - Bauwesen - Institut für Wasserbau (B-10)"</f>
@@ -6395,7 +6413,7 @@
         <v>19F2004C</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C105" s="0" t="str">
         <f aca="false">"smile consult GmbH"</f>
@@ -6408,7 +6426,7 @@
         <v>19F2004D</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C106" s="0" t="str">
         <f aca="false">"Küste und Raum - Ahlhorn &amp; Meyerdirks GbR"</f>
@@ -6421,7 +6439,7 @@
         <v>19F2005A</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C107" s="0" t="str">
         <f aca="false">"TraffGo Road GmbH"</f>
@@ -6434,7 +6452,7 @@
         <v>19F2005B</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C108" s="0" t="str">
         <f aca="false">"INRIX Europe GmbH"</f>
@@ -6447,7 +6465,7 @@
         <v>19F2005C</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C109" s="0" t="str">
         <f aca="false">"Bundesanstalt für Straßenwesen (BASt) - Referat V1 - Straßenentwurf, Verkehrsablauf, Verkehrsregelung"</f>
@@ -6460,7 +6478,7 @@
         <v>19F2006A</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C110" s="0" t="str">
         <f aca="false">"unu GmbH"</f>
@@ -6473,7 +6491,7 @@
         <v>19F2007A</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C111" s="0" t="str">
         <f aca="false">"Universität Rostock - Agrar- und Umweltwissenschaftliche Fakultät - Institut für Management ländlicher Räume (MLR) - Professur für Geodäsie und Geoinformatik"</f>
@@ -6486,7 +6504,7 @@
         <v>19F2007B</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C112" s="0" t="str">
         <f aca="false">"Leibniz-Institut für ökologische Raumentwicklung e.V."</f>
@@ -6499,7 +6517,7 @@
         <v>19F2007C</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C113" s="0" t="str">
         <f aca="false">"Bundesamt für Kartographie und Geodäsie (BKG)"</f>
@@ -6512,7 +6530,7 @@
         <v>19F2007D</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C114" s="0" t="str">
         <f aca="false">"DBFZ Deutsches Biomasseforschungszentrum gemeinnützige GmbH"</f>
@@ -6525,7 +6543,7 @@
         <v>19F2008A</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C115" s="0" t="str">
         <f aca="false">"Fraunhofer-Institut für Verkehrs- und Infrastruktursysteme (IVI)"</f>
@@ -6538,7 +6556,7 @@
         <v>19F2009A</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C116" s="0" t="str">
         <f aca="false">"Schlothauer &amp; Wauer Ingenieurgesellschaft für Straßenverkehr mbH - Niederlassung München"</f>
@@ -6551,7 +6569,7 @@
         <v>19F2009B</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C117" s="0" t="str">
         <f aca="false">"Technische Universität Carolo-Wilhelmina zu Braunschweig - Institut für Verkehr und Stadtbauwesen"</f>
@@ -6564,7 +6582,7 @@
         <v>19F2010A</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C118" s="0" t="str">
         <f aca="false">"DB Systel GmbH - Niederlassung Berlin"</f>
@@ -6577,7 +6595,7 @@
         <v>19F2010B</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C119" s="0" t="str">
         <f aca="false">"Siemens Aktiengesellschaft - Abt. MO MM R&amp;D"</f>
@@ -6590,7 +6608,7 @@
         <v>19F2010C</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C120" s="0" t="str">
         <f aca="false">"Hasso-Plattner-Institut für Digital Engineering gGmbH"</f>
@@ -6603,7 +6621,7 @@
         <v>19F2010D</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C121" s="0" t="str">
         <f aca="false">"Deutsches Zentrum für Luft- und Raumfahrt e.V. - Standort Braunschweig - Institut für Verkehrssystemtechnik"</f>
@@ -6616,7 +6634,7 @@
         <v>19F2010E</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C122" s="0" t="str">
         <f aca="false">"DRALLE Systementwicklungen, Martin Dralle"</f>
@@ -6629,7 +6647,7 @@
         <v>19F2011A</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C123" s="0" t="str">
         <f aca="false">"Technische Universität Dresden - Fakultät Verkehrswissenschaften Friedrich List - Institut für Verkehrsplanung und Straßenverkehr - Lehrstuhl Verkehrsökologie"</f>
@@ -6642,7 +6660,7 @@
         <v>19F2011B</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C124" s="0" t="str">
         <f aca="false">"Klima-Bündnis der europäischen Städte mit indigenen Völkern der Regenwälder / Alianza del Clima e.V."</f>
@@ -6655,7 +6673,7 @@
         <v>19F2012A</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C125" s="0" t="str">
         <f aca="false">"Fraunhofer-Institut für Arbeitswirtschaft und Organisation (IAO)"</f>
@@ -6668,7 +6686,7 @@
         <v>19F2012B</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C126" s="0" t="str">
         <f aca="false">"evopark GmbH"</f>
@@ -6681,7 +6699,7 @@
         <v>19F2012C</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C127" s="0" t="str">
         <f aca="false">"veloCARRIER GmbH"</f>
@@ -6694,7 +6712,7 @@
         <v>19F2013A</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C128" s="0" t="str">
         <f aca="false">"Deutscher Wetterdienst (DWD)"</f>
@@ -6707,7 +6725,7 @@
         <v>19F2014A</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C129" s="0" t="str">
         <f aca="false">"THD - Technische Hochschule Deggendorf - Technologie Campus Freyung - Institut für angewandte Informatik"</f>
@@ -6720,7 +6738,7 @@
         <v>19F2014B</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C130" s="0" t="str">
         <f aca="false">"Albert-Ludwigs-Universität Freiburg - Professur für Wildtierökologie und Wildtiermanagement"</f>
@@ -6733,7 +6751,7 @@
         <v>19F2016A</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C131" s="0" t="str">
         <f aca="false">"Fraunhofer-Institut für offene Kommunikationssysteme (FOKUS) - Standort Berlin"</f>
@@ -6746,7 +6764,7 @@
         <v>19F2017A</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C132" s="0" t="str">
         <f aca="false">"Bundesanstalt für Straßenwesen (BASt) - Referat B1"</f>
@@ -6759,7 +6777,7 @@
         <v>19F2017B</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C133" s="0" t="str">
         <f aca="false">"Hottinger Baldwin Messtechnik Gesellschaft mit beschränkter Haftung"</f>
@@ -6772,7 +6790,7 @@
         <v>19F2017C</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C134" s="0" t="str">
         <f aca="false">"ITC Engineering GmbH &amp; Co. KG"</f>
@@ -6785,7 +6803,7 @@
         <v>19F2017D</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C135" s="0" t="str">
         <f aca="false">"Technische Universität Berlin - Fakultät VI - Planen Bauen Umwelt - Institut für Bauingenieurwesen, Fachgebiet Entwerfen und Konstruieren - Stahlbau, Sekr.: TIB1-B1"</f>
@@ -6798,7 +6816,7 @@
         <v>19F2017E</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C136" s="0" t="str">
         <f aca="false">"Hasso-Plattner-Institut für Digital Engineering gGmbH"</f>
@@ -6811,7 +6829,7 @@
         <v>19F2018A</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C137" s="0" t="str">
         <f aca="false">"Bundesamt für Seeschifffahrt und Hydrographie (BSH)"</f>
@@ -6824,7 +6842,7 @@
         <v>19F2018B</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C138" s="0" t="str">
         <f aca="false">"smile consult GmbH"</f>
@@ -6837,7 +6855,7 @@
         <v>19F2018C</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C139" s="0" t="str">
         <f aca="false">"SevenCs GmbH"</f>
@@ -6850,7 +6868,7 @@
         <v>19F2020A</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C140" s="0" t="str">
         <f aca="false">"disy Informationssysteme GmbH"</f>
@@ -6863,7 +6881,7 @@
         <v>19F2020B</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C141" s="0" t="str">
         <f aca="false">"FZI Forschungszentrum Informatik am Karlsruher Institut für Technologie"</f>
@@ -6876,7 +6894,7 @@
         <v>19F2021A</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C142" s="0" t="str">
         <f aca="false">"Blic Beratungsgesellschaft für Leit-, Informations- und Computertechnik mit beschränkter Haftung, Berlin"</f>
@@ -6889,7 +6907,7 @@
         <v>19F2021B</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C143" s="0" t="str">
         <f aca="false">"DB Regio Aktiengesellschaft - Region Nordost"</f>
@@ -6902,7 +6920,7 @@
         <v>19F2021C</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C144" s="0" t="str">
         <f aca="false">"Deutsches Zentrum für Luft- und Raumfahrt e.V. - Standort Braunschweig - Institut für Verkehrssystemtechnik"</f>
@@ -6915,7 +6933,7 @@
         <v>19F2021D</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C145" s="0" t="str">
         <f aca="false">"HaCon Ingenieurgesellschaft mbH"</f>
@@ -6928,7 +6946,7 @@
         <v>19F2021E</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C146" s="0" t="str">
         <f aca="false">"IVU Traffic Technologies AG"</f>
@@ -6941,7 +6959,7 @@
         <v>19F2021F</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C147" s="0" t="str">
         <f aca="false">"predict.io GmbH"</f>
@@ -6954,7 +6972,7 @@
         <v>19F2021G</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C148" s="0" t="str">
         <f aca="false">"Telefónica Germany NEXT GmbH"</f>
@@ -6967,7 +6985,7 @@
         <v>19F2022A</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C149" s="0" t="str">
         <f aca="false">"Door2Door GmbH"</f>
@@ -6980,7 +6998,7 @@
         <v>19F2023A</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C150" s="0" t="str">
         <f aca="false">"YellowMap AG"</f>
@@ -6993,7 +7011,7 @@
         <v>19F2023B</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C151" s="0" t="str">
         <f aca="false">"Urban Software Institute GmbH - Niederlassung Darmstadt"</f>
@@ -7006,7 +7024,7 @@
         <v>19F2023C</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C152" s="0" t="str">
         <f aca="false">"Deutsches Forschungszentrum für Künstliche Intelligenz GmbH"</f>
@@ -7019,7 +7037,7 @@
         <v>19F2023D</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C153" s="0" t="str">
         <f aca="false">"Universität Siegen - Fakultät III - Wirtschaftswissenschaften, Wirtschaftsinformatik und Wirtschaftsrecht - Wirtschaftsinformatik"</f>
@@ -7032,7 +7050,7 @@
         <v>19F2023E</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C154" s="0" t="str">
         <f aca="false">"Stadtwerke Osnabrück Aktiengesellschaft"</f>
@@ -7045,7 +7063,7 @@
         <v>19F2023F</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C155" s="0" t="str">
         <f aca="false">"Johann Wolfgang Goethe-Universität Frankfurt am Main - Lehrstuhl für Öffentliches Recht, Informationsrecht, Umweltrecht, Verwaltungswissenschaft - Forschungsstelle Datenschutz"</f>
@@ -7058,7 +7076,7 @@
         <v>19F2023G</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C156" s="0" t="str">
         <f aca="false">"Hochschule Pforzheim - Gestaltung, Technik, Wirtschaft und Recht"</f>
@@ -7071,7 +7089,7 @@
         <v>19F2024A</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C157" s="0" t="str">
         <f aca="false">"Forschungsinstitut für Wasser- und Abfallwirtschaft an der RWTH Aachen e. V."</f>
@@ -7084,7 +7102,7 @@
         <v>19F2024B</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C158" s="0" t="str">
         <f aca="false">"Emschergenossenschaft"</f>
@@ -7097,7 +7115,7 @@
         <v>19F2024C</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C159" s="0" t="str">
         <f aca="false">"IAV GmbH Ingenieurgesellschaft Auto und Verkehr - Entwicklungszentrum Gifhorn"</f>
@@ -7110,7 +7128,7 @@
         <v>19F2025A</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C160" s="0" t="str">
         <f aca="false">"Heusch/Boesefeldt GmbH"</f>
@@ -7123,7 +7141,7 @@
         <v>19F2025B</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C161" s="0" t="str">
         <f aca="false">"Universität Kassel - Fachbereich 14 Bauingenieur- und Umweltingenieurwesen - Institut für Verkehrswesen - FG Verkehrstechnik und Transportlogistik"</f>
@@ -7136,7 +7154,7 @@
         <v>19F2025C</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C162" s="0" t="str">
         <f aca="false">"Hessen Mobil - Straßen- und Verkehrsmanagement"</f>
@@ -7149,7 +7167,7 @@
         <v>19F2025D</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C163" s="0" t="str">
         <f aca="false">"Stadt Kassel - Straßenverkehrs- und Tiefbauamt"</f>
@@ -7162,7 +7180,7 @@
         <v>19F2025E</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C164" s="0" t="str">
         <f aca="false">"AVT STOYE GmbH - Niederlassung Köln"</f>
@@ -7175,7 +7193,7 @@
         <v>19F2026A</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C165" s="0" t="str">
         <f aca="false">"Innovationszentrum für Mobilität und gesellschaftlichen Wandel (InnoZ) GmbH"</f>
@@ -7188,7 +7206,7 @@
         <v>19F2026B</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C166" s="0" t="str">
         <f aca="false">"Wissenschaftszentrum Berlin für Sozialforschung gGmbH"</f>
@@ -7201,7 +7219,7 @@
         <v>19F2027A</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C167" s="0" t="str">
         <f aca="false">"tsenso GmbH"</f>
@@ -7214,7 +7232,7 @@
         <v>19F2027B</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C168" s="0" t="str">
         <f aca="false">"TRC Transportation Research and Consulting GmbH - Niederlassung Stuttgart"</f>
@@ -7227,7 +7245,7 @@
         <v>19F2027C</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C169" s="0" t="str">
         <f aca="false">"abstracture GmbH &amp; Co. KG"</f>
@@ -7240,7 +7258,7 @@
         <v>19F2027D</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C170" s="0" t="str">
         <f aca="false">"Software-Kontor Helmert GmbH"</f>
@@ -7253,7 +7271,7 @@
         <v>19F2028A</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C171" s="0" t="str">
         <f aca="false">"Universität Paderborn - Fakultät für Elektrotechnik, Informatik und Mathematik - Institut für Informatik - Lehrstuhl für Data Science"</f>
@@ -7266,7 +7284,7 @@
         <v>19F2029A</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C172" s="0" t="str">
         <f aca="false">"eccenca GmbH"</f>
@@ -7279,7 +7297,7 @@
         <v>19F2029B</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C173" s="0" t="str">
         <f aca="false">"CISS TDI GmbH"</f>
@@ -7292,7 +7310,7 @@
         <v>19F2029C</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C174" s="0" t="str">
         <f aca="false">"Universität Paderborn - Fakultät für Elektrotechnik, Informatik und Mathematik - Institut für Informatik - Lehrstuhl für Data Science"</f>
@@ -7305,7 +7323,7 @@
         <v>19F2029D</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C175" s="0" t="str">
         <f aca="false">"YellowMap AG"</f>
@@ -7318,7 +7336,7 @@
         <v>19F2029E</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C176" s="0" t="str">
         <f aca="false">"USU Software AG"</f>
@@ -7331,7 +7349,7 @@
         <v>19F2029F</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C177" s="0" t="str">
         <f aca="false">"appPlant GmbH"</f>
@@ -7344,7 +7362,7 @@
         <v>19F2029G</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C178" s="0" t="str">
         <f aca="false">"Institut für Angewandte Informatik (InfAI) e.V."</f>
@@ -7357,7 +7375,7 @@
         <v>19F2029H</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C179" s="0" t="str">
         <f aca="false">"Technische Universität Berlin - Institut für Telekommunikationssysteme - Architekturen der Vermittlungsknoten (AV), MAR 5-5"</f>
@@ -7370,7 +7388,7 @@
         <v>19F2029I</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C180" s="0" t="str">
         <f aca="false">"Fraunhofer-Institut für Intelligente Analyse- und Informationssysteme (IAIS)"</f>
@@ -7383,7 +7401,7 @@
         <v>19F2030A</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C181" s="0" t="str">
         <f aca="false">"Institut für Automation und Kommunikation e.V."</f>
@@ -7396,7 +7414,7 @@
         <v>19F2030B</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C182" s="0" t="str">
         <f aca="false">"AFUSOFT Kommunikationstechnik GmbH"</f>
@@ -7409,7 +7427,7 @@
         <v>19F2030C</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C183" s="0" t="str">
         <f aca="false">"Deutsches Zentrum für Luft- und Raumfahrt e.V. - Standort Braunschweig - Institut für Verkehrssystemtechnik"</f>
@@ -7422,7 +7440,7 @@
         <v>19F2030D</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C184" s="0" t="str">
         <f aca="false">"GEVAS software GmbH"</f>
@@ -7435,7 +7453,7 @@
         <v>19F2030E</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C185" s="0" t="str">
         <f aca="false">"PTV Planung Transport Verkehr AG"</f>
@@ -7448,7 +7466,7 @@
         <v>19F2030F</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C186" s="0" t="str">
         <f aca="false">"Stadt Braunschweig - Fachbereich Feuerwehr"</f>
@@ -7461,7 +7479,7 @@
         <v>19F2031A</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C187" s="0" t="str">
         <f aca="false">"Deutsches Forschungszentrum für Künstliche Intelligenz GmbH - Educational Technology"</f>
@@ -7474,7 +7492,7 @@
         <v>19F2031B</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C188" s="0" t="str">
         <f aca="false">"idalab GmbH"</f>
@@ -7487,7 +7505,7 @@
         <v>19F2031C</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C189" s="0" t="str">
         <f aca="false">"Rhein-Main-Verkehrsverbund Servicegesellschaft mbH (rms GmbH)"</f>
@@ -7500,7 +7518,7 @@
         <v>19F2031D</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C190" s="0" t="str">
         <f aca="false">"Universität Kassel - Fachbereich 14 Bauingenieur- und Umweltingenieurwesen - Institut für Verkehrswesen - FG Verkehrstechnik und Transportlogistik"</f>
@@ -7513,7 +7531,7 @@
         <v>19F2031E</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C191" s="0" t="str">
         <f aca="false">"DB Sicherheit GmbH"</f>
@@ -7526,7 +7544,7 @@
         <v>19F2032A</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C192" s="0" t="str">
         <f aca="false">"Hochschule für Angewandte Wissenschaften Hof - Institut für Informationssysteme"</f>
@@ -7539,7 +7557,7 @@
         <v>19F2032B</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C193" s="0" t="str">
         <f aca="false">"Fraunhofer-Arbeitsgruppe für Supply Chain Services SCS"</f>
@@ -7552,7 +7570,7 @@
         <v>19F2032C</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C194" s="0" t="str">
         <f aca="false">"Technische Universität München - Ingenieurfakultät Bau Geo Umwelt - Institut für Verkehrswesen - Lehrstuhl für Verkehrstechnik"</f>
@@ -7565,7 +7583,7 @@
         <v>19F2032E</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C195" s="0" t="str">
         <f aca="false">"Landkreis Wunsiedel i. Fichtelgebirge"</f>
@@ -7578,7 +7596,7 @@
         <v>19F2032F</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C196" s="0" t="str">
         <f aca="false">"Landkreis Hof"</f>
@@ -7591,7 +7609,7 @@
         <v>19F2032G</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C197" s="0" t="str">
         <f aca="false">"Stadtverwaltung Hof"</f>
@@ -7604,7 +7622,7 @@
         <v>19F2033A</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C198" s="0" t="str">
         <f aca="false">"Fraunhofer-Institut für Verkehrs- und Infrastruktursysteme (IVI)"</f>
@@ -7617,7 +7635,7 @@
         <v>19F2033B</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C199" s="0" t="str">
         <f aca="false">"Technische Universität Dresden - Fakultät Verkehrswissenschaften Friedrich List - Institut für Verkehrstelematik - Professur Informationstechnik für Verkehrssysteme (ITVS)"</f>
@@ -7630,7 +7648,7 @@
         <v>19F2033C</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C200" s="0" t="str">
         <f aca="false">"CETECOM GmbH"</f>
@@ -7643,7 +7661,7 @@
         <v>19F2033D</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C201" s="0" t="str">
         <f aca="false">"hrd.consulting"</f>
@@ -7656,7 +7674,7 @@
         <v>19F2033E</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C202" s="0" t="str">
         <f aca="false">"MechLab Engineering UG (haftungsbeschränkt)"</f>
@@ -7669,7 +7687,7 @@
         <v>19F2033F</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C203" s="0" t="str">
         <f aca="false">"Software Aktiengesellschaft - Research"</f>
@@ -7682,7 +7700,7 @@
         <v>19F2034A</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C204" s="0" t="str">
         <f aca="false">"INVERS GmbH"</f>
@@ -7695,7 +7713,7 @@
         <v>19F2035A</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C205" s="0" t="str">
         <f aca="false">"Electric Mobility Concepts GmbH"</f>
@@ -7708,7 +7726,7 @@
         <v>19F2036A</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C206" s="0" t="str">
         <f aca="false">"XTL Kommunikationssysteme GmbH"</f>
@@ -7721,7 +7739,7 @@
         <v>19F2036B</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C207" s="0" t="str">
         <f aca="false">"BREWELO GmbH &amp; Co. KG"</f>
@@ -7734,7 +7752,7 @@
         <v>19F2037A</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C208" s="0" t="str">
         <f aca="false">"Fraunhofer-Institut für Materialfluss und Logistik (IML) - Projektzentrum Prien"</f>
@@ -7747,7 +7765,7 @@
         <v>19F2037B</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C209" s="0" t="str">
         <f aca="false">"Materna Information &amp; Communications SE"</f>
@@ -7760,7 +7778,7 @@
         <v>19F2037C</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C210" s="0" t="str">
         <f aca="false">"TraffGo Road GmbH"</f>
@@ -7773,7 +7791,7 @@
         <v>19F2037D</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C211" s="0" t="str">
         <f aca="false">"Hochschule für Wirtschaft und Umwelt Nürtingen-Geislingen"</f>
@@ -7786,7 +7804,7 @@
         <v>19F2037E</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C212" s="0" t="str">
         <f aca="false">"PRISMA solutions Deutschland GmbH"</f>
@@ -7799,7 +7817,7 @@
         <v>19F2037F</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C213" s="0" t="str">
         <f aca="false">"Emons Transporte GmbH"</f>
@@ -7812,7 +7830,7 @@
         <v>19F2038A</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C214" s="0" t="str">
         <f aca="false">"Hochschule Bochum"</f>
@@ -7825,7 +7843,7 @@
         <v>19F2038B</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C215" s="0" t="str">
         <f aca="false">"Wupperverband"</f>
@@ -7838,7 +7856,7 @@
         <v>19F2038C</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C216" s="0" t="str">
         <f aca="false">"EFTAS Fernerkundung Technologietransfer GmbH"</f>
@@ -7851,7 +7869,7 @@
         <v>19F2038D</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C217" s="0" t="str">
         <f aca="false">"52° North Initiative for Geospatial Open Source Software GmbH"</f>
@@ -7864,7 +7882,7 @@
         <v>19F2039A</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C218" s="0" t="str">
         <f aca="false">"Bundesanstalt für Wasserbau"</f>
@@ -7877,7 +7895,7 @@
         <v>19F2040A</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C219" s="0" t="str">
         <f aca="false">"Eisenbahn-Bundesamt"</f>
@@ -7890,7 +7908,7 @@
         <v>19F2040B</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C220" s="0" t="str">
         <f aca="false">"ASCI Systemhaus GmbH"</f>
@@ -7903,7 +7921,7 @@
         <v>19F2040C</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C221" s="0" t="str">
         <f aca="false">"DB RegioNetz Verkehrs GmbH - Technologiemanagement und -entwicklung"</f>
@@ -7916,7 +7934,7 @@
         <v>19F2040D</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C222" s="0" t="str">
         <f aca="false">"Fraunhofer-Institut für Intelligente Analyse- und Informationssysteme (IAIS)"</f>
@@ -7929,7 +7947,7 @@
         <v>19F2040E</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C223" s="0" t="str">
         <f aca="false">"Universität Stuttgart - Fakultät 7 Konstruktions-, Produktions- und Fahrzeugtechnik (Maschinenbau) - Institut für Maschinenelemente - Bereich Schienenfahrzeugtechnik"</f>
@@ -7942,7 +7960,7 @@
         <v>19F2041A</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C224" s="0" t="str">
         <f aca="false">"Rheinisch-Westfälische Technische Hochschule Aachen - Fakultät 3 - Bauingenieurwesen - Lehrstuhl und Institut für Straßenwesen"</f>
@@ -7955,7 +7973,7 @@
         <v>19F2041B</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C225" s="0" t="str">
         <f aca="false">"GETRASOL Ingenieurbüro für das Verkehrswesen Inh. Dipl.-Ing. Thomas Gerlach"</f>
@@ -7968,7 +7986,7 @@
         <v>19F2042A</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C226" s="0" t="str">
         <f aca="false">"Hochschule Karlsruhe - Technik und Wirtschaft"</f>
@@ -7981,7 +7999,7 @@
         <v>19F2042B</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C227" s="0" t="str">
         <f aca="false">"ANNAX GmbH"</f>
@@ -7994,7 +8012,7 @@
         <v>19F2042C</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C228" s="0" t="str">
         <f aca="false">"USU Software AG"</f>
@@ -8007,7 +8025,7 @@
         <v>19F2042D</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C229" s="0" t="str">
         <f aca="false">"Mentz GmbH"</f>
@@ -8020,7 +8038,7 @@
         <v>19F2042E</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C230" s="0" t="str">
         <f aca="false">"Albtal-Verkehrs-Gesellschaft mbH"</f>
@@ -8033,7 +8051,7 @@
         <v>19F2043A</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C231" s="0" t="str">
         <f aca="false">"Kombiverkehr Deutsche Gesellschaft für kombinierten Güterverkehr mbH &amp; Co. KG"</f>
@@ -8046,7 +8064,7 @@
         <v>19F2043B</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C232" s="0" t="str">
         <f aca="false">"DB Cargo Aktiengesellschaft"</f>
@@ -8059,7 +8077,7 @@
         <v>19F2043C</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C233" s="0" t="str">
         <f aca="false">"Lokomotion Gesellschaft für Schienentraktion mbH"</f>
@@ -8072,7 +8090,7 @@
         <v>19F2043D</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C234" s="0" t="str">
         <f aca="false">"SBB Cargo Deutschland Gesellschaft mit beschränkter Haftung"</f>
@@ -8085,7 +8103,7 @@
         <v>19F2043E</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C235" s="0" t="str">
         <f aca="false">"KTL Kombi-Terminal Ludwigshafen GmbH"</f>
@@ -8098,7 +8116,7 @@
         <v>19F2043F</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C236" s="0" t="str">
         <f aca="false">"Hoyer GmbH Internationale Fachspedition"</f>
@@ -8111,7 +8129,7 @@
         <v>19F2043G</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C237" s="0" t="str">
         <f aca="false">"PANEUROPA Transport GmbH"</f>
@@ -8124,7 +8142,7 @@
         <v>19F2043H</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C238" s="0" t="str">
         <f aca="false">"Hupac Transportgesellschaft mit beschränkter Haftung"</f>
@@ -8137,7 +8155,7 @@
         <v>19F2044A</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C239" s="0" t="str">
         <f aca="false">"Institut für Seeverkehrswirtschaft und Logistik (ISL)"</f>
@@ -8150,7 +8168,7 @@
         <v>19F2044B</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C240" s="0" t="str">
         <f aca="false">"Fraunhofer-Institut für Kommunikation, Informationsverarbeitung und Ergonomie (FKIE)"</f>
@@ -8163,7 +8181,7 @@
         <v>19F2044C</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C241" s="0" t="str">
         <f aca="false">"Bertling EDI Service &amp; IT GmbH"</f>
@@ -8176,7 +8194,7 @@
         <v>19F2044D</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C242" s="0" t="str">
         <f aca="false">"TFG Transfracht Internationale Gesellschaft für kombinierten Güterverkehr mbH"</f>
@@ -8189,7 +8207,7 @@
         <v>19F2044E</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C243" s="0" t="str">
         <f aca="false">"MSC Germany S.A. &amp; Co. KG"</f>
@@ -8202,7 +8220,7 @@
         <v>19F2044F</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C244" s="0" t="str">
         <f aca="false">"datenschutz cert GmbH"</f>
@@ -8215,7 +8233,7 @@
         <v>19F2044G</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C245" s="0" t="str">
         <f aca="false">"BSH Hausgeräte GmbH"</f>
@@ -8228,7 +8246,7 @@
         <v>19F2045A</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C246" s="0" t="str">
         <f aca="false">"AUDI Aktiengesellschaft - Abt. I/EK-S1 Vorentwicklung / Konzepte Aufbau"</f>
@@ -8241,7 +8259,7 @@
         <v>19F2045B</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C247" s="0" t="str">
         <f aca="false">"Deutscher Wetterdienst (DWD)"</f>
@@ -8254,7 +8272,7 @@
         <v>19F2046A</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C248" s="0" t="str">
         <f aca="false">"German Auto Labs GAL GmbH"</f>
@@ -8267,7 +8285,7 @@
         <v>19F2047A</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C249" s="0" t="str">
         <f aca="false">"Bochumer Institut für Technologie gGmbH"</f>
@@ -8280,7 +8298,7 @@
         <v>19F2047B</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C250" s="0" t="str">
         <f aca="false">"Old World Computing UG (haftungsbeschränkt)"</f>
@@ -8293,7 +8311,7 @@
         <v>19F2047C</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C251" s="0" t="str">
         <f aca="false">"Hochschule Bochum - Fachbereich Elektrotechnik und Informatik"</f>
@@ -8306,7 +8324,7 @@
         <v>19F2047D</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C252" s="0" t="str">
         <f aca="false">"secunet Security Networks Aktiengesellschaft - Niederlassung Berlin"</f>
@@ -8319,7 +8337,7 @@
         <v>19F2048A</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C253" s="0" t="str">
         <f aca="false">"Metropolregion Rhein-Neckar GmbH"</f>
@@ -8332,7 +8350,7 @@
         <v>19F2048B</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C254" s="0" t="str">
         <f aca="false">"Deutsches Forschungsinstitut für öffentliche Verwaltung"</f>
@@ -8345,7 +8363,7 @@
         <v>19F2048C</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C255" s="0" t="str">
         <f aca="false">"Netzwerk Geoinformation der Metropolregion Rhein-Neckar e.V."</f>
@@ -8358,7 +8376,7 @@
         <v>19F2048D</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C256" s="0" t="str">
         <f aca="false">"Universität Mannheim - Institut für Enterprise Systems (InES)"</f>
@@ -8371,7 +8389,7 @@
         <v>19F2048E</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C257" s="0" t="str">
         <f aca="false">"Thales Deutschland GmbH - Standort Koblenz"</f>
@@ -8384,7 +8402,7 @@
         <v>19F2048F</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C258" s="0" t="str">
         <f aca="false">"MTS Maschinentechnik Schrode AG"</f>
@@ -8397,7 +8415,7 @@
         <v>19F2049A</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C259" s="0" t="str">
         <f aca="false">"Technische Hochschule Mittelhessen"</f>
@@ -8410,7 +8428,7 @@
         <v>19F2049B</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C260" s="0" t="str">
         <f aca="false">"Bauhaus-Universität Weimar - Fakultät Bauingenieurwesen - Professur Verkehrssystemplanung"</f>
@@ -8423,7 +8441,7 @@
         <v>19F2049C</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C261" s="0" t="str">
         <f aca="false">"TraffiCon GmbH"</f>
@@ -8436,7 +8454,7 @@
         <v>19F2049D</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C262" s="0" t="str">
         <f aca="false">"Stadt Kassel - Straßenverkehrs- und Tiefbauamt"</f>
@@ -8449,7 +8467,7 @@
         <v>19F2049E</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C263" s="0" t="str">
         <f aca="false">"Stadt Dortmund - Dezernat 6 - Tiefbauamt"</f>
@@ -8462,7 +8480,7 @@
         <v>19F2049F</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C264" s="0" t="str">
         <f aca="false">"Stadt Frankfurt am Main - Straßenverkehrsamt"</f>
@@ -8475,7 +8493,7 @@
         <v>19F2049G</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C265" s="0" t="str">
         <f aca="false">"ivm GmbH (Integriertes Verkehrs- und Mobilitätsmanagement Region Frankfurt Rhein-Main)"</f>
@@ -8488,7 +8506,7 @@
         <v>19F2049H</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C266" s="0" t="str">
         <f aca="false">"pwp - systems GmbH - Niederlassung Halle (Saale)"</f>
@@ -8501,7 +8519,7 @@
         <v>19F2049I</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C267" s="0" t="str">
         <f aca="false">"ZEITMEILEN AG"</f>
@@ -8514,7 +8532,7 @@
         <v>19F2050A</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C268" s="0" t="str">
         <f aca="false">"Fraunhofer-Institut für Umwelt-, Sicherheits- und Energietechnik (UMSICHT)"</f>
@@ -8527,7 +8545,7 @@
         <v>19F2050B</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C269" s="0" t="str">
         <f aca="false">"Ingenieurgesellschaft Prof. Dr. Sieker mbH"</f>
@@ -8540,7 +8558,7 @@
         <v>19F2050C</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C270" s="0" t="str">
         <f aca="false">"iMA - Immissionen, Meteorologie, Akustik - Richter und Röckle GmbH &amp; Co. KG"</f>
@@ -8553,7 +8571,7 @@
         <v>19F2051A</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C271" s="0" t="str">
         <f aca="false">"BearingPoint GmbH"</f>
@@ -8566,7 +8584,7 @@
         <v>19F2051B</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C272" s="0" t="str">
         <f aca="false">"BearingPoint Technology GmbH"</f>
@@ -8579,7 +8597,7 @@
         <v>19F2051D</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C273" s="0" t="str">
         <f aca="false">"Technische Universität Berlin - Institut für Bauingenieurwesen - Fachgebiet Wasserwirtschaft und Hydrosystemmodellierung"</f>
@@ -8592,7 +8610,7 @@
         <v>19F2051E</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C274" s="0" t="str">
         <f aca="false">"Bundesanstalt für Gewässerkunde (BfG)"</f>
@@ -8605,7 +8623,7 @@
         <v>19F2052A</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C275" s="0" t="str">
         <f aca="false">"iRights.Lab GmbH"</f>
@@ -8618,7 +8636,7 @@
         <v>19F2053A</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C276" s="0" t="str">
         <f aca="false">"WIK Wissenschaftliches Institut für Infrastruktur und Kommunikationsdienste GmbH"</f>
@@ -8631,7 +8649,7 @@
         <v>19F2054A</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C277" s="0" t="str">
         <f aca="false">"Bundesanstalt für Gewässerkunde (BfG)"</f>
@@ -8644,7 +8662,7 @@
         <v>19F2054B</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C278" s="0" t="str">
         <f aca="false">"Geocoptix GmbH"</f>
@@ -8657,7 +8675,7 @@
         <v>19F2054C</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C279" s="0" t="str">
         <f aca="false">"JB Hyperspectral Devices UG (haftungsbeschränkt)"</f>
@@ -8670,7 +8688,7 @@
         <v>19F2054D</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C280" s="0" t="str">
         <f aca="false">"Hochschule Koblenz - RheinAhrCampus Remagen - Anwendungszentrum für multimodale und luftgestützte Sensorik"</f>
@@ -8683,7 +8701,7 @@
         <v>19F2055A</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C281" s="0" t="str">
         <f aca="false">"Siemens Mobility GmbH - MO CS MM"</f>
@@ -8696,7 +8714,7 @@
         <v>19F2055B</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C282" s="0" t="str">
         <f aca="false">"Deutsches Zentrum für Luft- und Raumfahrt e.V. - Standort Berlin - Institut für Verkehrssystemtechnik"</f>
@@ -8709,7 +8727,7 @@
         <v>19F2055C</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C283" s="0" t="str">
         <f aca="false">"Copting GmbH"</f>
@@ -8722,7 +8740,7 @@
         <v>19F2056A</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C284" s="0" t="str">
         <f aca="false">"FZI Forschungszentrum Informatik am Karlsruher Institut für Technologie"</f>
@@ -8735,7 +8753,7 @@
         <v>19F2056B</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C285" s="0" t="str">
         <f aca="false">"understandAI GmbH"</f>
@@ -8748,7 +8766,7 @@
         <v>19F2056C</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C286" s="0" t="str">
         <f aca="false">"kosima GmbH Kostenorientiertes systemunterstütztes Infrastrukturmanagement"</f>
@@ -8761,7 +8779,7 @@
         <v>19F2056D</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C287" s="0" t="str">
         <f aca="false">"HOCHTIEF PPP Solutions GmbH"</f>
@@ -8774,7 +8792,7 @@
         <v>19F2057A</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C288" s="0" t="str">
         <f aca="false">"M.O.S.S Computer Grafik-Systeme GmbH"</f>
@@ -8787,7 +8805,7 @@
         <v>19F2057B</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C289" s="0" t="str">
         <f aca="false">"Robotic Eyes GmbH"</f>
@@ -8800,7 +8818,7 @@
         <v>19F2057C</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C290" s="0" t="str">
         <f aca="false">"DMT GmbH &amp; Co. KG"</f>
@@ -8813,7 +8831,7 @@
         <v>19F2057D</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C291" s="0" t="str">
         <f aca="false">"Steinmann-Kauer-Consulting GbR"</f>
@@ -8826,7 +8844,7 @@
         <v>19F2057E</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C292" s="0" t="str">
         <f aca="false">"Technische Universität Darmstadt - Centre for Cognitive Science"</f>
@@ -8839,7 +8857,7 @@
         <v>19F2057F</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C293" s="0" t="str">
         <f aca="false">"Drees &amp; Sommer Advanced Building Technologies GmbH"</f>
@@ -8852,7 +8870,7 @@
         <v>19F2058A</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C294" s="0" t="str">
         <f aca="false">"DB Systel GmbH - Niederlassung Berlin"</f>
@@ -8865,7 +8883,7 @@
         <v>19F2058B</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C295" s="0" t="str">
         <f aca="false">"Deutsches Forschungszentrum für Künstliche Intelligenz GmbH - Sprachtechnologie"</f>
@@ -8878,7 +8896,7 @@
         <v>19F2058C</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C296" s="0" t="str">
         <f aca="false">"idalab GmbH"</f>
@@ -8891,7 +8909,7 @@
         <v>19F2058D</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C297" s="0" t="str">
         <f aca="false">"Door2Door GmbH"</f>
@@ -8904,7 +8922,7 @@
         <v>19F2059A</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C298" s="0" t="str">
         <f aca="false">"Telefónica Germany NEXT GmbH"</f>
@@ -8917,7 +8935,7 @@
         <v>19F2059B</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C299" s="0" t="str">
         <f aca="false">"civity Management Consultants GmbH &amp; Co. KG"</f>
@@ -8930,7 +8948,7 @@
         <v>19F2059C</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C300" s="0" t="str">
         <f aca="false">"MotionTag GmbH"</f>
@@ -8943,7 +8961,7 @@
         <v>19F2059D</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C301" s="0" t="str">
         <f aca="false">"Fraunhofer-Institut für Intelligente Analyse- und Informationssysteme (IAIS)"</f>
@@ -8956,7 +8974,7 @@
         <v>19F2060A</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C302" s="0" t="str">
         <f aca="false">"DB Cargo Aktiengesellschaft - Niederlassung Frankfurt"</f>
@@ -8969,7 +8987,7 @@
         <v>19F2060B</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C303" s="0" t="str">
         <f aca="false">"Inspirient GmbH"</f>
@@ -8982,7 +9000,7 @@
         <v>19F2060C</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C304" s="0" t="str">
         <f aca="false">"Rheinisch-Westfälische Technische Hochschule Aachen - Fakultät 4 - Maschinenwesen - Lehrstuhl Informationsmanagement im Maschinenbau"</f>
@@ -8995,7 +9013,7 @@
         <v>19F2061A</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C305" s="0" t="str">
         <f aca="false">"Institut für Automation und Kommunikation e.V."</f>
@@ -9008,7 +9026,7 @@
         <v>19F2061B</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C306" s="0" t="str">
         <f aca="false">"ParkHere GmbH"</f>
@@ -9021,7 +9039,7 @@
         <v>19F2061C</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C307" s="0" t="str">
         <f aca="false">"WunderCar Mobility Solutions GmbH"</f>
@@ -9034,7 +9052,7 @@
         <v>19F2062A</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C308" s="0" t="str">
         <f aca="false">"JAKOTA Cruise Systems GmbH"</f>
@@ -9047,7 +9065,7 @@
         <v>19F2062B</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C309" s="0" t="str">
         <f aca="false">"JAKOTA Design Group GmbH"</f>
@@ -9060,7 +9078,7 @@
         <v>19F2062C</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C310" s="0" t="str">
         <f aca="false">"Fraunhofer-Gesellschaft zur Förderung der angewandten Forschung e.V. - Fraunhofer-Center für Maritime Logistik und Dienstleistungen - Projektgruppe des IML"</f>
@@ -9073,7 +9091,7 @@
         <v>19F2062D</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C311" s="0" t="str">
         <f aca="false">"Hochschule Wismar University of Applied Sciences Technology, Business and Design - Fakultät für Ingenieurwissenschaften - FB Seefahrt"</f>
@@ -9086,7 +9104,7 @@
         <v>19F2062E</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C312" s="0" t="str">
         <f aca="false">"Deutsches Zentrum für Luft- und Raumfahrt e.V. - Institut für Raumfahrtsysteme"</f>
@@ -9099,7 +9117,7 @@
         <v>19F2063A</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C313" s="0" t="str">
         <f aca="false">"XapiX Software GmbH"</f>
@@ -9112,7 +9130,7 @@
         <v>19F2064A</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C314" s="0" t="str">
         <f aca="false">"Software Aktiengesellschaft - Research"</f>
@@ -9125,7 +9143,7 @@
         <v>19F2064B</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C315" s="0" t="str">
         <f aca="false">"Deutsches Zentrum für Luft- und Raumfahrt e.V. - Deutsches Fernerkundungsdatenzentrum (DFD)"</f>
@@ -9138,7 +9156,7 @@
         <v>19F2064C</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C316" s="0" t="str">
         <f aca="false">"Fraunhofer-Institut für Nachrichtentechnik, Heinrich-Hertz-Institut (HHI)"</f>
@@ -9151,7 +9169,7 @@
         <v>19F2064D</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C317" s="0" t="str">
         <f aca="false">"geomer GmbH"</f>
@@ -9164,7 +9182,7 @@
         <v>19F2064E</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C318" s="0" t="str">
         <f aca="false">"Hochschule für Angewandte Wissenschaften Hof - Institut für Informationssysteme"</f>
@@ -9177,7 +9195,7 @@
         <v>19F2064F</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C319" s="0" t="str">
         <f aca="false">"Leibniz-Institut für ökologische Raumentwicklung e.V."</f>
@@ -9190,7 +9208,7 @@
         <v>19F2065A</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C320" s="0" t="str">
         <f aca="false">"Deutsches Zentrum für Luft- und Raumfahrt e.V. - Institut für Methodik der Fernerkundung"</f>
@@ -9203,7 +9221,7 @@
         <v>19F2065B</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C321" s="0" t="str">
         <f aca="false">"Freie Universität Berlin - Fachbereich Geowissenschaften - Institut für Meteorologie"</f>
@@ -9216,7 +9234,7 @@
         <v>19F2065C</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C322" s="0" t="str">
         <f aca="false">"IVU Umwelt GmbH"</f>
@@ -9229,7 +9247,7 @@
         <v>19F2065D</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C323" s="0" t="str">
         <f aca="false">"Nederlandse Organisatie voor Toegepast Natuurwetenschappelijk Onderzoek (TNO) - Niederlassung Utrecht"</f>
@@ -9238,46 +9256,46 @@
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9286,7 +9304,7 @@
         <v>19F2067A</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C328" s="0" t="str">
         <f aca="false">"HFC Human-Factors-Consult GmbH"</f>
@@ -9299,7 +9317,7 @@
         <v>19F2067B</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C329" s="0" t="str">
         <f aca="false">"DResearch Fahrzeugelektronik GmbH"</f>
@@ -9312,7 +9330,7 @@
         <v>19F2067C</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C330" s="0" t="str">
         <f aca="false">"Fraunhofer-Institut für Nachrichtentechnik, Heinrich-Hertz-Institut (HHI)"</f>
@@ -9325,7 +9343,7 @@
         <v>19F2067D</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C331" s="0" t="str">
         <f aca="false">"Humboldt-Universität zu Berlin - Mathematisch-Naturwissenschaftliche Fakultät - Institut für Informatik"</f>
@@ -9338,7 +9356,7 @@
         <v>19F2067E</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C332" s="0" t="str">
         <f aca="false">"VMZ Berlin Betreibergesellschaft mbH"</f>
@@ -9351,7 +9369,7 @@
         <v>19F2068A</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C333" s="0" t="str">
         <f aca="false">"Urban Software Institute GmbH"</f>
@@ -9364,7 +9382,7 @@
         <v>19F2068B</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C334" s="0" t="str">
         <f aca="false">"Stadt Chemnitz - Tiefbauamt A 66"</f>
@@ -9377,7 +9395,7 @@
         <v>19F2068C</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C335" s="0" t="str">
         <f aca="false">"Stadt Hamm - Dezernat VI Stadtplanung, Bauwesen, Wohnen - 66 Tiefbau- und Grünflächenamt"</f>
@@ -9390,7 +9408,7 @@
         <v>19F2068D</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C336" s="0" t="str">
         <f aca="false">"Stadt Krefeld - Fachbereich 66 Tiefbau"</f>
@@ -9403,7 +9421,7 @@
         <v>19F2068E</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C337" s="0" t="str">
         <f aca="false">"THD - Technische Hochschule Deggendorf"</f>
@@ -9416,7 +9434,7 @@
         <v>19F2068F</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C338" s="0" t="str">
         <f aca="false">"TSC Beratende Ingenieure für Verkehrswesen GmbH &amp; Co. KG"</f>
@@ -9429,7 +9447,7 @@
         <v>19F2068G</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C339" s="0" t="str">
         <f aca="false">"52° North Initiative for Geospatial Open Source Software GmbH"</f>
@@ -9442,7 +9460,7 @@
         <v>19F2070A</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C340" s="0" t="str">
         <f aca="false">"Fraunhofer- Institut für offene Kommunikationssysteme FOKUS"</f>
@@ -9455,7 +9473,7 @@
         <v>19F2070B</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C341" s="0" t="str">
         <f aca="false">"Quanergy Systems GmbH - Niederlassung München"</f>
@@ -9468,7 +9486,7 @@
         <v>19F2072A</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C342" s="0" t="str">
         <f aca="false">"Technische Universität Carolo-Wilhelmina zu Braunschweig - Fakultät 4 - Maschinenbau - Institut für Flugführung"</f>
@@ -9481,7 +9499,7 @@
         <v>19F2072B</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C343" s="0" t="str">
         <f aca="false">"Exabotix GmbH"</f>
@@ -9494,7 +9512,7 @@
         <v>19F2072C</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C344" s="0" t="str">
         <f aca="false">"Deutscher Wetterdienst (DWD) - Niederlassung Tauche OT Lindenberg"</f>
@@ -9507,7 +9525,7 @@
         <v>19F2072D</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C345" s="0" t="str">
         <f aca="false">"Alfred-Wegener-Institut Helmholtz-Zentrum für Polar- und Meeresforschung"</f>
@@ -9520,7 +9538,7 @@
         <v>19F2073A</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C346" s="0" t="str">
         <f aca="false">"Leibniz-Institut für ökologische Raumentwicklung e.V."</f>
@@ -9533,7 +9551,7 @@
         <v>19F2073B</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C347" s="0" t="str">
         <f aca="false">"Deutsches Zentrum für Luft- und Raumfahrt e.V. - Deutsches Fernerkundungsdatenzentrum (DFD)"</f>
@@ -9546,7 +9564,7 @@
         <v>19F2073C</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C348" s="0" t="str">
         <f aca="false">"Technische Universität Dresden - Fakultät Forst-, Geo- und Hydrowissenschaften - Fachrichtung Geowissenschaften - Institut für Kartographie"</f>
@@ -9559,7 +9577,7 @@
         <v>19F2073D</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C349" s="0" t="str">
         <f aca="false">"Ruprecht-Karls-Universität Heidelberg - Heidelberg Institute for Geoinformation Technology (HeiGIT)"</f>
@@ -9572,7 +9590,7 @@
         <v>19F2073E</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C350" s="0" t="str">
         <f aca="false">"ISB Institut für Software- Entwicklung und EDV-Beratung AG"</f>
@@ -9585,7 +9603,7 @@
         <v>19F2073F</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C351" s="0" t="str">
         <f aca="false">"urbanista GmbH &amp; Co. KG"</f>
@@ -9598,7 +9616,7 @@
         <v>19F2073G</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C352" s="0" t="str">
         <f aca="false">"Terra Concordia gemeinnützige GmbH"</f>
@@ -9611,7 +9629,7 @@
         <v>19F2074A</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C353" s="0" t="str">
         <f aca="false">"flyXdrive GmbH"</f>
@@ -9624,7 +9642,7 @@
         <v>19F2074B</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C354" s="0" t="str">
         <f aca="false">"Rheinisch-Westfälische Technische Hochschule Aachen - Institut für Flugsystemdynamik"</f>
@@ -9637,7 +9655,7 @@
         <v>19F2074C</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C355" s="0" t="str">
         <f aca="false">"Karlsruher Institut für Technologie (KIT) - Fakultät für Elektrotechnik und Informationstechnik - Institut für Regelungs- und Steuerungssysteme"</f>
@@ -9650,7 +9668,7 @@
         <v>19F2074D</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C356" s="0" t="str">
         <f aca="false">"Deutsche Telekom AG - Technology &amp; Innovation - Innovation &amp; Research"</f>
@@ -9663,7 +9681,7 @@
         <v>19F2074E</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C357" s="0" t="str">
         <f aca="false">"M4Com System GmbH"</f>
@@ -9676,7 +9694,7 @@
         <v>19F2074F</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C358" s="0" t="str">
         <f aca="false">"DFS Deutsche Flugsicherung GmbH"</f>
@@ -9689,7 +9707,7 @@
         <v>19F2074G</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C359" s="0" t="str">
         <f aca="false">"Stadt Dortmund - Institut für Feuerwehr- und Rettungstechnologie"</f>
@@ -9702,7 +9720,7 @@
         <v>19F2075A</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C360" s="0" t="str">
         <f aca="false">"Leibniz Universität Hannover - Fakultät für Bauingenieurwesen und Geodäsie - Institut für Massivbau"</f>
@@ -9715,7 +9733,7 @@
         <v>19F2075B</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C361" s="0" t="str">
         <f aca="false">"MKP GmbH"</f>
@@ -9728,7 +9746,7 @@
         <v>19F2075C</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C362" s="0" t="str">
         <f aca="false">"albert.ing GmbH"</f>
@@ -9741,7 +9759,7 @@
         <v>19F2075D</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C363" s="0" t="str">
         <f aca="false">"DB Netz Aktiengesellschaft - Technik- und Anlagenmanagement Fahrweg - Brückenbau"</f>
@@ -9754,7 +9772,7 @@
         <v>19F2075E</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C364" s="0" t="str">
         <f aca="false">"Eisenbahn-Bundesamt"</f>
@@ -9767,7 +9785,7 @@
         <v>19F2076A</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C365" s="0" t="str">
         <f aca="false">"PROFI Engineering Systems AG"</f>
@@ -9780,7 +9798,7 @@
         <v>19F2076B</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C366" s="0" t="str">
         <f aca="false">"BiM CC GmbH"</f>
@@ -9793,7 +9811,7 @@
         <v>19F2076C</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C367" s="0" t="str">
         <f aca="false">"Dataport"</f>
@@ -9806,7 +9824,7 @@
         <v>19F2077A</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C368" s="0" t="str">
         <f aca="false">"BERLINER WASSERBETRIEBE - Organisationseinheit (OE) Forschung und Entwicklung"</f>
@@ -9819,7 +9837,7 @@
         <v>19F2077B</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C369" s="0" t="str">
         <f aca="false">"Berliner Verkehrsbetriebe (BVG)"</f>
@@ -9832,7 +9850,7 @@
         <v>19F2077C</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C370" s="0" t="str">
         <f aca="false">"Berliner Stadtreinigungsbetriebe (BSR) - Vorstandsbüro - Abt. Energie, Umwelt, Innovationen"</f>
@@ -9845,7 +9863,7 @@
         <v>19F2077D</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C371" s="0" t="str">
         <f aca="false">"Urban Software Institute GmbH"</f>
@@ -9858,7 +9876,7 @@
         <v>19F2077E</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C372" s="0" t="str">
         <f aca="false">"e.sigma Technology GmbH"</f>
@@ -9871,7 +9889,7 @@
         <v>19F2077F</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C373" s="0" t="str">
         <f aca="false">"Smart City Solutions GmbH"</f>
@@ -9884,7 +9902,7 @@
         <v>19F2077G</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C374" s="0" t="str">
         <f aca="false">"Technische Universität Kaiserslautern - Fachbereich Bauingenieurwesen - Fachgebiet Siedlungswasserwirtschaft"</f>
@@ -9897,7 +9915,7 @@
         <v>19F2077H</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C375" s="0" t="str">
         <f aca="false">"Stromnetz Berlin GmbH"</f>
@@ -9906,266 +9924,266 @@
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
